--- a/database/industries/ravankar/sheranol/product/yearly.xlsx
+++ b/database/industries/ravankar/sheranol/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\sheranol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002A4422-3A8A-416E-B615-E96D1A4F771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386DC02B-5B6C-482D-AFB1-FC57073A1B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -584,12 +584,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -599,7 +599,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -633,7 +633,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -667,7 +667,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -699,7 +699,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -723,7 +723,7 @@
         <v>111904</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -795,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -819,7 +819,7 @@
         <v>90262</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -843,7 +843,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -889,7 +889,7 @@
         <v>68633</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -913,7 +913,7 @@
         <v>56133</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -937,7 +937,7 @@
         <v>46631</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -961,7 +961,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -985,7 +985,7 @@
         <v>163280</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>585309</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1017,7 +1017,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1027,7 +1027,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1037,7 +1037,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1069,7 +1069,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>111890</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>109506</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>18</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>67782</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>54466</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>25728</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>164412</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>581555</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1411,7 +1411,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1421,7 +1421,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1463,7 +1463,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>7864914</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>13</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>686129</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>16</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>20009737</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>358098</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>9148228</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>20</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>13389292</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>21</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>12415026</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>9587215</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>14466229</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>24</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>87924868</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1807,7 +1807,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1817,7 +1817,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1827,7 +1827,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>30</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>10</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>70291483</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>358291906</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>182727312</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>26</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>17</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>417363636</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>18</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>19</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>134965448</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>245828443</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>21</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>275901729</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>372637399</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>23</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>87987671</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2181,7 +2181,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2191,7 +2191,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2201,7 +2201,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>33</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2233,7 +2233,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>-5723413</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>-436439</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>15</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>16</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>-14874772</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>17</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>-369051</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>18</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>-7104623</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>-11948088</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>-9869559</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>22</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>-5223373</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>-11131375</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
         <v>24</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>-66680693</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2577,7 +2577,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2587,7 +2587,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2597,7 +2597,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>34</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2629,7 +2629,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>10</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2141501</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>13</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>249690</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>14</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>15</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>5134965</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>26</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>17</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>-10953</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>18</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>19</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>2043605</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>20</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>1441204</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>21</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>2545467</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>22</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>4363842</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>23</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>3334854</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
         <v>24</v>
       </c>

--- a/database/industries/ravankar/sheranol/product/yearly.xlsx
+++ b/database/industries/ravankar/sheranol/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386DC02B-5B6C-482D-AFB1-FC57073A1B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C14CD8D-DDC8-4AF8-BA12-2E487799C6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -584,12 +584,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -599,7 +599,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -633,7 +633,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -667,7 +667,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -699,7 +699,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -723,7 +723,7 @@
         <v>111904</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -771,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -795,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -819,7 +819,7 @@
         <v>90262</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -843,7 +843,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -889,7 +889,7 @@
         <v>68633</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -913,7 +913,7 @@
         <v>56133</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -937,7 +937,7 @@
         <v>46631</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -961,7 +961,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -985,7 +985,7 @@
         <v>163280</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>585309</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1017,7 +1017,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1027,7 +1027,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1037,7 +1037,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1069,7 +1069,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>111890</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>109506</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>26</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>18</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>67782</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>54466</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>21</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>25728</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>164412</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>581555</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1411,7 +1411,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1421,7 +1421,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1463,7 +1463,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>7864914</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>13</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>686129</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>16</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>20009737</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>358098</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>9148228</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>20</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>13389292</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>21</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>12415026</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>9587215</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>23</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>14466229</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>24</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>87924868</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1807,7 +1807,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1817,7 +1817,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1827,7 +1827,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>30</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>10</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>70291483</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>358291906</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>182727312</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>26</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>17</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>417363636</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>18</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>19</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>134965448</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>245828443</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>21</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>275901729</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>372637399</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>23</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>87987671</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2181,7 +2181,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2191,7 +2191,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2201,7 +2201,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>33</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2233,7 +2233,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>-5723413</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>-436439</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>15</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>16</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>-14874772</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>17</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>-369051</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>18</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>-7104623</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>-11948088</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>-9869559</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>22</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>-5223373</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>-11131375</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>24</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>-66680693</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2577,7 +2577,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2587,7 +2587,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2597,7 +2597,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>34</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2629,7 +2629,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>10</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>2141501</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>13</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>249690</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>14</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>15</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>5134965</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>26</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>17</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>-10953</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>18</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>19</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>2043605</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>20</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>1441204</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>21</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>2545467</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>22</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>4363842</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>23</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>3334854</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="14" t="s">
         <v>24</v>
       </c>

--- a/database/industries/ravankar/sheranol/product/yearly.xlsx
+++ b/database/industries/ravankar/sheranol/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C14CD8D-DDC8-4AF8-BA12-2E487799C6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF00B84-4E59-4AF9-BD70-4F38C5895222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
